--- a/data/trans_camb/P15A-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.03208457305884614</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8098470013599732</v>
+        <v>0.8098470013599739</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6133562099660581</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.028099342744404</v>
+        <v>-2.891780743642822</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.300392314679745</v>
+        <v>-2.376844247013587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.877386086472498</v>
+        <v>-2.764857407269113</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.742466670109</v>
+        <v>-1.747957417253405</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.459703839921538</v>
+        <v>-1.524412334528804</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7100663966426805</v>
+        <v>-0.8324067026098395</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.769763410864733</v>
+        <v>-1.706121733729013</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.378707269933112</v>
+        <v>-1.229063039453794</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.1401546152261</v>
+        <v>-1.191668270646582</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5090992931815844</v>
+        <v>0.6350751348957618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.305120126367552</v>
+        <v>1.363566587502838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.135099581522388</v>
+        <v>1.096010848507231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.2312705133193</v>
+        <v>1.153975541245702</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.59660316477396</v>
+        <v>1.455496502257684</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.978199455075254</v>
+        <v>2.739274742763315</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4790969993039157</v>
+        <v>0.5880242275535672</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9507084774169036</v>
+        <v>0.9848815800255437</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.520925215306267</v>
+        <v>1.558774707489023</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.0118870302799241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3000406397683865</v>
+        <v>0.3000406397683867</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2109848419098212</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6638351887903625</v>
+        <v>-0.6473210296268209</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5227377465786376</v>
+        <v>-0.5181044327895891</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6550321576259333</v>
+        <v>-0.6551330403808022</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4839104670921779</v>
+        <v>-0.5055926708984483</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4184971753067341</v>
+        <v>-0.4365450259374637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.230881948274568</v>
+        <v>-0.2630491110450747</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.498225245341659</v>
+        <v>-0.4827636493110752</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3656983786640668</v>
+        <v>-0.3416507136994278</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3307684385836369</v>
+        <v>-0.3571534804999721</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2565364632773073</v>
+        <v>0.3351088947448301</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6641828064263068</v>
+        <v>0.6637024850307924</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5488181160749598</v>
+        <v>0.521603727422742</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6587744631356233</v>
+        <v>0.6061195960836789</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8344292236219457</v>
+        <v>0.7670696521990771</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.438334599757395</v>
+        <v>1.439295569926665</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.216361335119</v>
+        <v>0.2706243174180645</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4278177489879745</v>
+        <v>0.4487104848635944</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6448869860231139</v>
+        <v>0.6696738117531913</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.678686032983767</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.01780227900653672</v>
+        <v>0.01780227900653707</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.04958868168211082</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.334160869756019</v>
+        <v>-1.491733235209546</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.186522025444883</v>
+        <v>-2.069769749454955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.449458486910971</v>
+        <v>-2.352152364895026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.797569458695547</v>
+        <v>-1.645454254178164</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.17392052478279</v>
+        <v>-2.217472853229828</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.240938762485625</v>
+        <v>-1.294735844912395</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.172613750968857</v>
+        <v>-1.057829984486968</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.736639175476222</v>
+        <v>-1.651756132307234</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.506576522965766</v>
+        <v>-1.421441515233721</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.790141311894247</v>
+        <v>1.590377926526791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8848803272557281</v>
+        <v>0.923850478216631</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6318168595611584</v>
+        <v>0.5848571185712781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.157169402282691</v>
+        <v>1.233026806058245</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6673270573207624</v>
+        <v>0.9545420491307889</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.32818102097674</v>
+        <v>1.324218357811789</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.05952040179377</v>
+        <v>1.113092447505882</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3970080007162845</v>
+        <v>0.4172625032173284</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5392475808472865</v>
+        <v>0.4786985928811891</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2358125480810816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006185482786091428</v>
+        <v>0.006185482786091549</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01632871156316128</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3529914351649904</v>
+        <v>-0.3908310372272159</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5336714797936487</v>
+        <v>-0.5359984281283657</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6287615848519108</v>
+        <v>-0.6143265790359289</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4901344730103007</v>
+        <v>-0.4533611633346294</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6048642590856724</v>
+        <v>-0.6130068340469008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3360621617476591</v>
+        <v>-0.3510081097767964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3214542510416178</v>
+        <v>-0.3056166945889502</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4659024414024058</v>
+        <v>-0.4723241373180485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4128661166360164</v>
+        <v>-0.4016278163520467</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7202498750527517</v>
+        <v>0.6793384518147052</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3735650491040352</v>
+        <v>0.3696201722514636</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2942513357032662</v>
+        <v>0.2704151050097702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5497317890068837</v>
+        <v>0.5869684873308776</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3515189766095997</v>
+        <v>0.4477982449283061</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6569940608510522</v>
+        <v>0.6893137064116284</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4300324962701249</v>
+        <v>0.4257388658307298</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1801613900952903</v>
+        <v>0.1641448029978148</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2439137617167849</v>
+        <v>0.2124118091696794</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.217632896202842</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-1.409944245894408</v>
+        <v>-1.409944245894409</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.6515452705014826</v>
@@ -1083,7 +1083,7 @@
         <v>0.3631386255660601</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.07172486911268157</v>
+        <v>-0.07172486911268122</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.3262834737901271</v>
@@ -1092,7 +1092,7 @@
         <v>-0.4721063736932828</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.7822728250425487</v>
+        <v>-0.7822728250425484</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.908522594499626</v>
+        <v>-2.764117332788096</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.861839150584773</v>
+        <v>-2.734462550627302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.130692077411321</v>
+        <v>-3.10979811479727</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.789987371506645</v>
+        <v>-0.7861724572857482</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.0899845890946</v>
+        <v>-0.9755234902621996</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.553328227999416</v>
+        <v>-1.44660093335529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.428478413145877</v>
+        <v>-1.422478338081071</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.566377388208749</v>
+        <v>-1.654604088403088</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.824385665301245</v>
+        <v>-1.828963587302083</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3179499472809105</v>
+        <v>0.3185553721904916</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2952750559592653</v>
+        <v>0.3493356629548076</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3671187700640619</v>
+        <v>0.04585795332648608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.469331056124401</v>
+        <v>2.288773594082922</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.180425463762405</v>
+        <v>2.106290856891758</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.026774237746342</v>
+        <v>1.076515156192931</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7336263155752403</v>
+        <v>0.8717428287055659</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6123122675207729</v>
+        <v>0.7030650072697999</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2608840903490394</v>
+        <v>0.1509847151590543</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3093395712843101</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3581962592501271</v>
+        <v>-0.3581962592501273</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2542021779082601</v>
@@ -1188,7 +1188,7 @@
         <v>0.1416795327674696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.02798365480359521</v>
+        <v>-0.02798365480359507</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.0991413155594283</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1434496403641005</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2376937946020345</v>
+        <v>-0.2376937946020344</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5853226795148925</v>
+        <v>-0.5935194592964106</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6030279413201982</v>
+        <v>-0.583446971989575</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6365050346572667</v>
+        <v>-0.6251581137261056</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2628231255858179</v>
+        <v>-0.2730821433248944</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3775550510024702</v>
+        <v>-0.3395400554054984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4431160658973056</v>
+        <v>-0.4222164706927952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.372068847861985</v>
+        <v>-0.3756109278060027</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4288710666327196</v>
+        <v>-0.4298337677629551</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4657747545863741</v>
+        <v>-0.4682793089962098</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1203295154948832</v>
+        <v>0.120661698728655</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1186240178428282</v>
+        <v>0.1263248262444375</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1609707379343945</v>
+        <v>0.05275691758980403</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.313628734241751</v>
+        <v>1.202017020109414</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.142500813357674</v>
+        <v>1.190533244748003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5967873106725418</v>
+        <v>0.5702800591866749</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2657419369238789</v>
+        <v>0.3212930195499205</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2137197191353115</v>
+        <v>0.2636612815278014</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1007724385791054</v>
+        <v>0.06208133862887988</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.599627982858336</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.360449002843231</v>
+        <v>-2.360449002843232</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.46936607574393</v>
+        <v>-4.84890352729049</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.379932588031215</v>
+        <v>-6.433458119309497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.802319786600155</v>
+        <v>-5.739148299872008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.06413286863367</v>
+        <v>-3.149341643207141</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.823160117560124</v>
+        <v>-3.843759042272993</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.663251038585397</v>
+        <v>-3.587595864050303</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.303721391246011</v>
+        <v>-3.064862275942011</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.386404761241623</v>
+        <v>-4.392215911347415</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.028848439157551</v>
+        <v>-4.112516929579183</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.177914301728681</v>
+        <v>1.318368066107341</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.024175587766464</v>
+        <v>-1.014708175670946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.02227922173666</v>
+        <v>-0.5527441144119276</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.946572590110764</v>
+        <v>1.883115174388005</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4056087488639865</v>
+        <v>0.4048358230479608</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5369775666717724</v>
+        <v>0.50489047103951</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8161712393517536</v>
+        <v>0.8511304847172859</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.8636874497862712</v>
+        <v>-1.014405389354915</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.7705904265474023</v>
+        <v>-0.6941822456395458</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.6194218108679047</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5800115315024886</v>
+        <v>-0.5800115315024885</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1534755746624323</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6270400037981855</v>
+        <v>-0.6587842479433791</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8346024472766592</v>
+        <v>-0.8357093147672799</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7876233124408236</v>
+        <v>-0.7904406143014483</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.672107555249905</v>
+        <v>-0.6761093707904866</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8238780429001382</v>
+        <v>-0.821649502660279</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7273598221700421</v>
+        <v>-0.68675649209805</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5911808775529516</v>
+        <v>-0.5508735739122442</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.7557673896578055</v>
+        <v>-0.7604180042494245</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.697178495368978</v>
+        <v>-0.7072359299696488</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3148528333508683</v>
+        <v>0.3659105067956466</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1744125872829559</v>
+        <v>-0.1983316339260535</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1430797667353852</v>
+        <v>-0.1019051302060763</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.165812680420846</v>
+        <v>1.17917451327627</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3425851128630547</v>
+        <v>0.3564663262182214</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3503420553433588</v>
+        <v>0.3977017558079149</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2427097535865294</v>
+        <v>0.3017737783063684</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2035850331892367</v>
+        <v>-0.2482919162845972</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.191551035492485</v>
+        <v>-0.1748004043688819</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-0.7048281570736739</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.7509291683690352</v>
+        <v>-0.7509291683690349</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.841243644031812</v>
+        <v>-1.761183069232683</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.079791612027721</v>
+        <v>-1.987279935708176</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.348312944607277</v>
+        <v>-2.31021486093355</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7620735019380117</v>
+        <v>-0.8256684607840544</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.041947311806776</v>
+        <v>-1.093286817116384</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.8119928034530319</v>
+        <v>-0.8477589530467819</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.090124001067769</v>
+        <v>-1.058847237149953</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.294262936528844</v>
+        <v>-1.297337451980318</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.387092142190278</v>
+        <v>-1.261328289942373</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03990939146694005</v>
+        <v>0.05276875526862165</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2808960501785454</v>
+        <v>-0.2216087672332648</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.4925838298347828</v>
+        <v>-0.4737453492689609</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8120354846774095</v>
+        <v>0.8078680925171571</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5438467003940154</v>
+        <v>0.5782757768228899</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6316907368169418</v>
+        <v>0.6165410366121613</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1129039488535991</v>
+        <v>0.1573910059692162</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1288370254808898</v>
+        <v>-0.1175831566924813</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.1973819514666647</v>
+        <v>-0.1828704420015524</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.215758286486113</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2298704854704172</v>
+        <v>-0.2298704854704171</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4235376135500513</v>
+        <v>-0.4157740417073231</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4803609894788864</v>
+        <v>-0.465989597496829</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5431005508886035</v>
+        <v>-0.5378803864894683</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2477940555513625</v>
+        <v>-0.2641876163440195</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3259261123666279</v>
+        <v>-0.3418767075515266</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2505690644669802</v>
+        <v>-0.2638874497511373</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3043111989264838</v>
+        <v>-0.2927603877935735</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3645628444647112</v>
+        <v>-0.363286414689958</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3806825108764713</v>
+        <v>-0.3541397846361009</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01734105454286653</v>
+        <v>0.01767229402614497</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07132973831652337</v>
+        <v>-0.06798823580728484</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1329495798425913</v>
+        <v>-0.1393094097401959</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3494666725842657</v>
+        <v>0.3465814933036149</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2412964380644819</v>
+        <v>0.2503131881278007</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2946258467335629</v>
+        <v>0.2734668834226993</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03799378772885147</v>
+        <v>0.05843467528119159</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.04181683752702827</v>
+        <v>-0.03938522683031993</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06328228048420959</v>
+        <v>-0.05643694526386909</v>
       </c>
     </row>
     <row r="34">
